--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120239.344205605</v>
+        <v>1118351.762689203</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>321967.0931304442</v>
+        <v>98477.89878011966</v>
       </c>
     </row>
     <row r="8">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120.8411509288678</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>197.8753414835264</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>76.48464164091926</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16.14365212156734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>136.5611266786227</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>106.4853254097427</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>16.14365212156762</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>104.8523999133008</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>352.2244945626373</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.13267830033018</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>127.7178027211455</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>96.91624688577166</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>184.730837530776</v>
+        <v>3.633341602776338</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>127.1119195785034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>97.12772045570674</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>111.8243266368421</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>166.1848299532896</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>59.77945773664969</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.0164625041519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.28627157372021</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750025</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965544</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>22.14609241444335</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>16.80134787438086</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523587</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689379</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
         <v>42.2873553346313</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.719328075852</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>979.7568111354399</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>979.7568111354399</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>593.9685585371956</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2266.068831556293</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2012.307046194385</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1681.244158850814</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075852</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>884.2894331389243</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>526.0237345321739</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>526.0237345321739</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>519.0782337829704</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2589.588156260907</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2589.588156260907</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2335.826370898998</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,13 +4653,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>711.8222648917197</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>422.6486545462877</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>422.6486545462877</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>422.6486545462877</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1154.883827626212</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.883827626212</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.883827626212</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1154.883827626212</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1328.817756940316</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>710.8232485495353</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>562.6765899837193</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>562.6765899837193</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.6765899837193</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161741</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.284655180325</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O12" t="n">
-        <v>1826.038069264287</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>226.2249729967965</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273991</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X13" t="n">
-        <v>746.1328412528823</v>
+        <v>447.0175521403266</v>
       </c>
       <c r="Y13" t="n">
-        <v>746.1328412528823</v>
+        <v>226.2249729967965</v>
       </c>
     </row>
     <row r="14">
@@ -5261,40 +5261,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>348.58978795107</v>
       </c>
       <c r="L15" t="n">
-        <v>836.4717212750119</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M15" t="n">
-        <v>1604.839867667473</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N15" t="n">
-        <v>1949.360523305091</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O15" t="n">
-        <v>2198.113937389053</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>768.5063379789311</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>540.5167870809138</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.5167870809138</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5534,13 +5534,13 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>492.7132215359195</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1106.610291292808</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M18" t="n">
-        <v>1426.94561082251</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.466266460128</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2440.930027762787</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1370.520392195778</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1370.520392195778</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>1081.391753409336</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V19" t="n">
-        <v>826.707265203449</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>537.2900951664884</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>537.2900951664884</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>537.2900951664884</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,46 +5735,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>385.3661712812277</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M21" t="n">
-        <v>1609.589088435861</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1385.962405268163</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1162.176990057668</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>873.0483512712267</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V22" t="n">
-        <v>873.0483512712267</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>583.6311812342661</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>355.6416303362488</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>355.6416303362488</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,52 +5984,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>802.0403666355641</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M24" t="n">
-        <v>1570.408513028025</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N24" t="n">
-        <v>2374.820091292176</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.5090525528009</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C25" t="n">
-        <v>415.5090525528009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>809.2953582963254</v>
+        <v>385.5899330013837</v>
       </c>
       <c r="X25" t="n">
-        <v>809.2953582963254</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.1575173830406</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L27" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M27" t="n">
-        <v>647.5155168583367</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N27" t="n">
-        <v>1451.927095122487</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.390856425146</v>
+        <v>2493.466724549914</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028574</v>
+        <v>302.8060739576071</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028574</v>
+        <v>133.8698910297002</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028569</v>
+        <v>133.8698910297002</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028563</v>
+        <v>133.8698910297002</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688066</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799357</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471184</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>933.2366688293941</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583033</v>
+        <v>933.2366688293941</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>705.2471179313768</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.2170914602858</v>
+        <v>484.4545387878467</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,34 +6452,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M30" t="n">
-        <v>647.5155168583368</v>
+        <v>813.8367190106992</v>
       </c>
       <c r="N30" t="n">
-        <v>1451.927095122488</v>
+        <v>1618.24829727485</v>
       </c>
       <c r="O30" t="n">
-        <v>2121.390856425147</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.1887347098098</v>
+        <v>439.5324299542156</v>
       </c>
       <c r="C31" t="n">
-        <v>560.0134170632737</v>
+        <v>326.3571123076792</v>
       </c>
       <c r="D31" t="n">
-        <v>465.6576429323088</v>
+        <v>232.0013381767142</v>
       </c>
       <c r="E31" t="n">
-        <v>373.5054146312866</v>
+        <v>232.0013381767142</v>
       </c>
       <c r="F31" t="n">
-        <v>282.3763324147471</v>
+        <v>209.6315478590946</v>
       </c>
       <c r="G31" t="n">
-        <v>169.9618760159381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737484</v>
+        <v>902.6804289818908</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1080481208378</v>
+        <v>730.4517433652441</v>
       </c>
       <c r="Y31" t="n">
-        <v>799.0763342586786</v>
+        <v>565.4200295030846</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>160.0174871669323</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>570.9077560114449</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M33" t="n">
-        <v>865.5852378527472</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N33" t="n">
-        <v>1559.410052240715</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229671</v>
@@ -6841,13 +6841,13 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6886,7 +6886,7 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>327.180197328635</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>647.5155168583368</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,19 +7199,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7254,25 +7254,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899877</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.963989254138</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O39" t="n">
-        <v>1891.427750556798</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="P39" t="n">
-        <v>2411.728372292545</v>
+        <v>2371.259889938974</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7631,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>196.7938704970896</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>607.6841393416023</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103136</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>266.2738741461704</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>184.5624985411942</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>334.429748535179</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.19602564639058</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>128.7934085032655</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.792160805815</v>
+        <v>282.8896567338147</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.80889040509986</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>124.4198406026825</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>86.09648334676116</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>85.95281337053842</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>107.4673633619781</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.568190847942903</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>109.134776449211</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338677</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801226</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>68.07169897993097</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.9092238645981</v>
+        <v>93.71057173897921</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571506</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442726</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442726</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977572.6493442726</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977572.6493442723</v>
+        <v>977572.6493442724</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1017055.343363176</v>
+        <v>1017055.343363175</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26320,10 +26320,10 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.059737709</v>
       </c>
       <c r="G2" t="n">
         <v>391029.0597377089</v>
@@ -26332,19 +26332,19 @@
         <v>391029.0597377089</v>
       </c>
       <c r="I2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452706</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321423</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284589</v>
+        <v>44162.60530284548</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284581</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26424,34 +26424,34 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759167</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758825</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905759301</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759237</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477244</v>
+        <v>18952.41620477234</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.5809318963</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26522,31 @@
         <v>-401365.2115264314</v>
       </c>
       <c r="C6" t="n">
-        <v>188602.667688113</v>
+        <v>188602.6676881131</v>
       </c>
       <c r="D6" t="n">
         <v>188602.667688113</v>
       </c>
       <c r="E6" t="n">
-        <v>-226906.0963784797</v>
+        <v>-227003.5555044518</v>
       </c>
       <c r="F6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724443</v>
       </c>
       <c r="G6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="H6" t="n">
-        <v>298253.9400984164</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="I6" t="n">
-        <v>298253.9400984162</v>
+        <v>298156.4809724442</v>
       </c>
       <c r="J6" t="n">
-        <v>121830.7209058234</v>
+        <v>121733.2617798512</v>
       </c>
       <c r="K6" t="n">
-        <v>247078.9073074295</v>
+        <v>247060.4135694957</v>
       </c>
       <c r="L6" t="n">
         <v>279256.2913793536</v>
@@ -26555,13 +26555,13 @@
         <v>154798.1829463834</v>
       </c>
       <c r="N6" t="n">
-        <v>289599.1981802207</v>
+        <v>289599.1981802206</v>
       </c>
       <c r="O6" t="n">
         <v>289599.1981802206</v>
       </c>
       <c r="P6" t="n">
-        <v>245436.5928773747</v>
+        <v>245436.592877375</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964061</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26753,22 +26753,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855685</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="3">
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>286.0348948128437</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>18.57297887413142</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>148.550463817165</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>209.5660032674698</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>277.2230433421723</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>67.93038739922883</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.8914533365167</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>56.69292621882479</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.8814417501798</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54.65155117907415</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841384</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.99007165458412</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855716</v>
+        <v>55.20325662855692</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31133,10 +31133,10 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31604,13 +31604,13 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>323.0126678614004</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32078,10 +32078,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>127.2880165989361</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,16 +32090,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>245.268778155287</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32233,7 +32233,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32312,31 +32312,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>272.8672424422185</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>320.3934755282637</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>164.4358785485904</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9375118102119018</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,16 +32789,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>353.0329386354462</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>263.8310857221904</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32810,13 +32810,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,31 +33029,31 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>24.67651921406764</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -33272,13 +33272,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>24.67651921406718</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>64.18133446428453</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>352.8324835862117</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33740,31 +33740,31 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>402.5502652134397</v>
       </c>
       <c r="N36" t="n">
-        <v>148.1449823495587</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33974,28 +33974,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>143.8894692628929</v>
+        <v>174.0293382086209</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>328.5774119587767</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34357,25 +34357,25 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>101.3291964139384</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>127.7194943662962</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>507.5010290870073</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>253.9118146371557</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
@@ -35738,16 +35738,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>429.7571393808939</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>399.4910404804381</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>643.9645053562452</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>291.05967658681</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>324.5085416381935</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>585.3189041590311</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>611.8317479824107</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>209.1648804396746</v>
+        <v>50.58809112686394</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>191.8335040907346</v>
       </c>
       <c r="P30" t="n">
-        <v>209.1648804396741</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>63.43474313802668</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>700.8331458464319</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>726.1212950414213</v>
       </c>
       <c r="N36" t="n">
-        <v>496.1456446097789</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.9849829127205</v>
+        <v>244.1248518584485</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>60.72709196759461</v>
+        <v>652.1484417867583</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>100.5826050876806</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
